--- a/meetrapporten/results/final Calculation.xlsx
+++ b/meetrapporten/results/final Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanz\Documents\GitHub\VISN-HU\meetrapporten\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150A32D-1751-4388-B1B8-CEB08097A5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B45C718-127D-49BD-83E4-AAD694E2EDC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-3480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10368" yWindow="60" windowWidth="10116" windowHeight="3300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="47">
   <si>
     <t>Student</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>man-9.jpg</t>
+  </si>
+  <si>
+    <t>Verbetering standaarddeviatie in percentage</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Verbetering stdev.p in percentage</c:v>
+                  <c:v>Verbetering standaarddeviatie in percentage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1865,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2906,7 +2909,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3">
         <v>2.0531520485928643</v>
